--- a/CS/ClassWorkUpdated/BestOil/bin/Debug/net6.0-windows/Oils.xlsx
+++ b/CS/ClassWorkUpdated/BestOil/bin/Debug/net6.0-windows/Oils.xlsx
@@ -107,7 +107,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3">
